--- a/data/trans_camb/P44-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P44-Estudios-trans_camb.xlsx
@@ -618,13 +618,13 @@
         <v>1.396789712280795</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20.68298145463583</v>
+        <v>20.68298145463584</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>1.899247876288779</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>23.28286561574988</v>
+        <v>23.28286561574987</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4902428267790976</v>
+        <v>-0.8729275487369053</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>22.98325156260725</v>
+        <v>23.00774480714132</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.12943583156939</v>
+        <v>-1.145392386884952</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.68783286451449</v>
+        <v>17.77954141084763</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.1334721770068081</v>
+        <v>-0.1278830601572766</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>20.65991381084536</v>
+        <v>20.82677790488114</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.148496816116138</v>
+        <v>5.917837312275989</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>31.95329097904695</v>
+        <v>31.88354160346294</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.040427798328894</v>
+        <v>3.709047420722385</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23.49540497933668</v>
+        <v>23.6054394815649</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.980979584781533</v>
+        <v>3.851679986472151</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>25.89912091759598</v>
+        <v>25.87785002528172</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>0.3507367594584631</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3.682715488941852</v>
+        <v>3.682715488941851</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.2141754416751562</v>
@@ -702,7 +702,7 @@
         <v>0.2759010178169493</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>3.382268529178503</v>
+        <v>3.382268529178502</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.057092068609464</v>
+        <v>-0.1060786427660071</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>2.511105777083335</v>
+        <v>2.437991457727136</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1617031100675387</v>
+        <v>-0.1588655365098149</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>2.265183878401133</v>
+        <v>2.225745160397639</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01982122410461796</v>
+        <v>-0.01927842166384554</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.646998099222895</v>
+        <v>2.622996336115032</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.078426851274931</v>
+        <v>1.005023575763428</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.579799251024014</v>
+        <v>5.529182126569687</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7566072682415518</v>
+        <v>0.6668639780244462</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.401577426924757</v>
+        <v>4.522155422092323</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.674326341221869</v>
+        <v>0.6537849156196504</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.441881974227096</v>
+        <v>4.40643083583871</v>
       </c>
     </row>
     <row r="10">
@@ -778,13 +778,13 @@
         <v>-2.130423079365403</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22.49855255128647</v>
+        <v>22.49855255128648</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.9725854569362911</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>22.49444790170778</v>
+        <v>22.49444790170777</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.97309093890151</v>
+        <v>-4.194915109368718</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.89650306012937</v>
+        <v>17.97416306830853</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.883303204082672</v>
+        <v>-5.591296569937473</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18.28435290344229</v>
+        <v>18.44825175377641</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.824116163027268</v>
+        <v>-3.922536074914174</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>19.28271234295689</v>
+        <v>19.29261921220139</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.466424470093645</v>
+        <v>4.512073864492725</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>27.09229754517078</v>
+        <v>27.35498086428025</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.242371136249411</v>
+        <v>1.352444283079317</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26.13375792484144</v>
+        <v>26.04889807212889</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.592629068535708</v>
+        <v>1.629673319156588</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>25.42055374205432</v>
+        <v>25.4014589419783</v>
       </c>
     </row>
     <row r="13">
@@ -856,13 +856,13 @@
         <v>-0.2722711379064531</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>2.875347419824042</v>
+        <v>2.875347419824043</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1001364393448591</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>2.316006168754594</v>
+        <v>2.316006168754593</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2857140706884623</v>
+        <v>-0.2900100844748236</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1.210482308802231</v>
+        <v>1.197911901867107</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5725110393291394</v>
+        <v>-0.5434020282745339</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.667658863402006</v>
+        <v>1.645705192137834</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3367408512352056</v>
+        <v>-0.3344473407917783</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.61580943822245</v>
+        <v>1.609856963286036</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.533882068562841</v>
+        <v>0.5033975804317761</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.141142291000527</v>
+        <v>3.195559585594499</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.233431789924219</v>
+        <v>0.269185707915894</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>4.74968501704667</v>
+        <v>4.792677590141729</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2011816495681073</v>
+        <v>0.214798901195068</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.29598773306643</v>
+        <v>3.185245820875795</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>2.966332803842034</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>29.08120062556441</v>
+        <v>29.0812006255644</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-6.565253176245584</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.549095936168879</v>
+        <v>-8.177886297617402</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>18.47269742916734</v>
+        <v>18.78654912686217</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-20.59163217024252</v>
+        <v>-20.96524972038815</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.090953406890457</v>
+        <v>5.583879870711725</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-9.647004223700666</v>
+        <v>-9.262231947025196</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16.99722018648681</v>
+        <v>16.97657710636818</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.209716187079</v>
+        <v>12.95348616909617</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>37.44672684817141</v>
+        <v>37.16881607062494</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.530325952997253</v>
+        <v>5.875247024752901</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30.18645108117732</v>
+        <v>30.57426499739231</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.862334671748055</v>
+        <v>6.617525337617014</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>31.85099236835</v>
+        <v>31.58730101369509</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>0.1996894648632661</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1.957706627853308</v>
+        <v>1.957706627853307</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.3310953714058646</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3703414674718945</v>
+        <v>-0.390290610418028</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.7313432741575436</v>
+        <v>0.7936531953619783</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6874289841586984</v>
+        <v>-0.6978530965644817</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.236476606726765</v>
+        <v>0.1551656203922487</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4413073441224115</v>
+        <v>-0.4031810911786949</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7220970551193157</v>
+        <v>0.7203934267901619</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.489029676434414</v>
+        <v>1.343106600939166</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.194986488893903</v>
+        <v>4.323127169654637</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4822236302791478</v>
+        <v>0.5362149901279599</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.97573477725445</v>
+        <v>2.842157891951127</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4693795541555579</v>
+        <v>0.5895409579034471</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.018314524792285</v>
+        <v>2.737406027891002</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>1.053037951138969</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.69070453127517</v>
+        <v>24.69070453127515</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3676043281004965</v>
+        <v>-0.5913132341871041</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>23.7891975297129</v>
+        <v>23.71130750860769</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.006743246061495</v>
+        <v>-2.054196179283511</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20.53788022715315</v>
+        <v>20.73851391904992</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5786784244559688</v>
+        <v>-0.422139178988849</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.84336965278635</v>
+        <v>22.89760880051121</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.576676441978488</v>
+        <v>4.776373394809432</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>29.73686319442485</v>
+        <v>29.48498340258421</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.810294406188273</v>
+        <v>1.824307130225899</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25.17019589971623</v>
+        <v>24.85631778400179</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.583216559689192</v>
+        <v>2.593101637564</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.33904902114573</v>
+        <v>26.6078563024315</v>
       </c>
     </row>
     <row r="25">
@@ -1182,7 +1182,7 @@
         <v>0.125586431603771</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>2.944639813324918</v>
+        <v>2.944639813324917</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03304541030330988</v>
+        <v>-0.05234406121919143</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2.109280026082211</v>
+        <v>2.123419591262713</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.235919700866369</v>
+        <v>-0.239142408649063</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2.351794001557033</v>
+        <v>2.370105048379266</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06177616388983866</v>
+        <v>-0.0437568601024866</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2.416014954670858</v>
+        <v>2.417818419481253</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5512191024960793</v>
+        <v>0.5920310709242927</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.646691205880213</v>
+        <v>3.747786303179885</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2867256841788776</v>
+        <v>0.2851319986520734</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4.012739776538926</v>
+        <v>3.916510808048198</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3409039854872195</v>
+        <v>0.3419231783899361</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.544023815229516</v>
+        <v>3.582700955226386</v>
       </c>
     </row>
     <row r="28">
